--- a/Room.xlsx
+++ b/Room.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HCMUS\Nam3_HK2\TH_LT_HDT\ProjectHDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C2271F-F363-4FA4-B544-4080AA3F7CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABA2F42-A22E-42DF-BDED-DBB813CAA315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0403BAE7-86B5-4803-AC42-14EE8595FC18}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -112,48 +112,6 @@
     <t>Đang sử dụng</t>
   </si>
   <si>
-    <t>Banh Van G</t>
-  </si>
-  <si>
-    <t>Dang su dung</t>
-  </si>
-  <si>
-    <t>Da dat</t>
-  </si>
-  <si>
-    <t>Huong nui</t>
-  </si>
-  <si>
-    <t>Huong bien</t>
-  </si>
-  <si>
-    <t>An uong</t>
-  </si>
-  <si>
-    <t>Tron goi</t>
-  </si>
-  <si>
-    <t>Don dep</t>
-  </si>
-  <si>
-    <t>Nguyen Van A</t>
-  </si>
-  <si>
-    <t>Tran Thi B</t>
-  </si>
-  <si>
-    <t>Le Thi C</t>
-  </si>
-  <si>
-    <t>Pham Van D</t>
-  </si>
-  <si>
-    <t>Nguyen Thi E</t>
-  </si>
-  <si>
-    <t>Tran Van F</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -164,6 +122,27 @@
   </si>
   <si>
     <t>Bình thường (X)</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>Trần Thị B</t>
+  </si>
+  <si>
+    <t>Lê Thị C</t>
+  </si>
+  <si>
+    <t>Phạm Văn D</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị E</t>
+  </si>
+  <si>
+    <t>Trần Văn F</t>
+  </si>
+  <si>
+    <t>Bành Văn G</t>
   </si>
 </sst>
 </file>
@@ -591,7 +570,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -662,16 +641,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2">
         <f xml:space="preserve"> K2 + O3</f>
@@ -690,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="O2" s="4">
         <v>0</v>
@@ -704,16 +683,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2">
         <f xml:space="preserve"> K2 + O6</f>
@@ -746,16 +725,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -787,16 +766,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -828,16 +807,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2">
         <f xml:space="preserve"> K3 + O4</f>
@@ -861,16 +840,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2">
         <f xml:space="preserve"> K3 + O6</f>
@@ -885,16 +864,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G8" s="2">
         <f xml:space="preserve"> K3 + K10 + O4</f>
@@ -921,16 +900,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -939,13 +918,13 @@
         <v>1</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -956,16 +935,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -991,16 +970,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G11" s="2">
         <f xml:space="preserve"> K4 + K10 + O6</f>
@@ -1027,16 +1006,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -1051,16 +1030,16 @@
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -1074,16 +1053,16 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G14" s="2">
         <f xml:space="preserve"> K5 + K10 + O6</f>
@@ -1098,16 +1077,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -1121,16 +1100,16 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
